--- a/Work/MS BRIBox/PM/2/KC Batusangkar/Teras Rambatan/FORM PM Teras Rambatan.xlsx
+++ b/Work/MS BRIBox/PM/2/KC Batusangkar/Teras Rambatan/FORM PM Teras Rambatan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jamil\Work\MS BRIBox\PM\2\KC Batusangkar\Teras Rambatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1DAD66-A243-426B-ABC7-50AE16425BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094E842-0E79-4B07-8AF3-94C1B89A29A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form PM" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form PM'!$A$7:$W$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="V36" sqref="A1:V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
